--- a/Dataset/Final Data/Tables Description.xlsx
+++ b/Dataset/Final Data/Tables Description.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\DEPI-Final-Project---Gold-and-Oil-Predictions\Dataset\Final Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98EDFAB9-91BF-443B-9DB8-3A38BB51D671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0137C501-D352-448F-9198-30ED30B487E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{64DC8462-31C8-413C-AE04-A946F8DA8A48}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="122">
   <si>
     <t>No.</t>
   </si>
@@ -399,6 +399,9 @@
   </si>
   <si>
     <t>Inflation-data for all countries from 1979  to 2024</t>
+  </si>
+  <si>
+    <t>gold_egypt_full_features</t>
   </si>
 </sst>
 </file>
@@ -805,10 +808,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF2BB5BC-4BDE-4834-9BD1-71A74253793C}">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -849,7 +852,6 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
-        <f>SUBTOTAL(3,$D$2:D2)</f>
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -876,7 +878,6 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
-        <f>SUBTOTAL(3,$D$2:D3)</f>
         <v>2</v>
       </c>
       <c r="D3" t="s">
@@ -897,7 +898,6 @@
     </row>
     <row r="4" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4">
-        <f>SUBTOTAL(3,$D$2:D4)</f>
         <v>3</v>
       </c>
       <c r="D4" t="s">
@@ -918,7 +918,6 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
-        <f>SUBTOTAL(3,$D$2:D5)</f>
         <v>4</v>
       </c>
       <c r="D5" t="s">
@@ -939,7 +938,6 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
-        <f>SUBTOTAL(3,$D$2:D6)</f>
         <v>5</v>
       </c>
       <c r="D6" t="s">
@@ -960,7 +958,6 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
-        <f>SUBTOTAL(3,$D$2:D7)</f>
         <v>6</v>
       </c>
       <c r="D7" t="s">
@@ -981,7 +978,6 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
-        <f>SUBTOTAL(3,$D$2:D8)</f>
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -1008,53 +1004,44 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
-        <f>SUBTOTAL(3,$D$2:D9)</f>
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" t="s">
-        <v>33</v>
-      </c>
+      <c r="B9" s="3"/>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>121</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
       </c>
       <c r="G9" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>115</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
-        <f>SUBTOTAL(3,$D$2:D10)</f>
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F10" t="s">
         <v>11</v>
       </c>
       <c r="G10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>115</v>
@@ -1062,21 +1049,25 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
-        <f>SUBTOTAL(3,$D$2:D11)</f>
         <v>10</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
       </c>
       <c r="G11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>115</v>
@@ -1084,18 +1075,20 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
-        <f>SUBTOTAL(3,$D$2:D12)</f>
         <v>11</v>
       </c>
       <c r="B12" s="3"/>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="G12" t="s">
+        <v>44</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>115</v>
@@ -1103,38 +1096,34 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
-        <f>SUBTOTAL(3,$D$2:D13)</f>
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" t="s">
-        <v>48</v>
-      </c>
+      <c r="B13" s="3"/>
       <c r="D13" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E13" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
-        <f>SUBTOTAL(3,$D$2:D14)</f>
         <v>13</v>
       </c>
+      <c r="B14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" t="s">
+        <v>48</v>
+      </c>
       <c r="D14" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E14" t="s">
         <v>50</v>
@@ -1143,7 +1132,7 @@
         <v>11</v>
       </c>
       <c r="G14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>116</v>
@@ -1151,11 +1140,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
-        <f>SUBTOTAL(3,$D$2:D15)</f>
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E15" t="s">
         <v>50</v>
@@ -1164,7 +1152,7 @@
         <v>11</v>
       </c>
       <c r="G15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>116</v>
@@ -1172,20 +1160,19 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
-        <f>SUBTOTAL(3,$D$2:D16)</f>
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F16" t="s">
         <v>11</v>
       </c>
       <c r="G16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>116</v>
@@ -1193,38 +1180,36 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
-        <f>SUBTOTAL(3,$D$2:D17)</f>
         <v>16</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" t="s">
-        <v>59</v>
-      </c>
       <c r="D17" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E17" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
         <v>11</v>
       </c>
       <c r="G17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
-        <f>SUBTOTAL(3,$D$2:D18)</f>
         <v>17</v>
       </c>
+      <c r="B18" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" t="s">
+        <v>59</v>
+      </c>
       <c r="D18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E18" t="s">
         <v>50</v>
@@ -1233,7 +1218,7 @@
         <v>11</v>
       </c>
       <c r="G18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>114</v>
@@ -1241,11 +1226,10 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
-        <f>SUBTOTAL(3,$D$2:D19)</f>
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E19" t="s">
         <v>50</v>
@@ -1254,7 +1238,7 @@
         <v>11</v>
       </c>
       <c r="G19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>114</v>
@@ -1262,11 +1246,10 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
-        <f>SUBTOTAL(3,$D$2:D20)</f>
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E20" t="s">
         <v>50</v>
@@ -1275,7 +1258,7 @@
         <v>11</v>
       </c>
       <c r="G20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>114</v>
@@ -1283,11 +1266,10 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
-        <f>SUBTOTAL(3,$D$2:D21)</f>
         <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E21" t="s">
         <v>50</v>
@@ -1296,7 +1278,7 @@
         <v>11</v>
       </c>
       <c r="G21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>114</v>
@@ -1304,11 +1286,10 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
-        <f>SUBTOTAL(3,$D$2:D22)</f>
         <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E22" t="s">
         <v>50</v>
@@ -1317,7 +1298,7 @@
         <v>11</v>
       </c>
       <c r="G22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>114</v>
@@ -1325,11 +1306,10 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
-        <f>SUBTOTAL(3,$D$2:D23)</f>
         <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E23" t="s">
         <v>50</v>
@@ -1338,7 +1318,7 @@
         <v>11</v>
       </c>
       <c r="G23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>114</v>
@@ -1346,11 +1326,10 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
-        <f>SUBTOTAL(3,$D$2:D24)</f>
         <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E24" t="s">
         <v>50</v>
@@ -1359,7 +1338,7 @@
         <v>11</v>
       </c>
       <c r="G24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>114</v>
@@ -1367,11 +1346,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
-        <f>SUBTOTAL(3,$D$2:D25)</f>
         <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E25" t="s">
         <v>50</v>
@@ -1380,7 +1358,7 @@
         <v>11</v>
       </c>
       <c r="G25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>114</v>
@@ -1388,11 +1366,10 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
-        <f>SUBTOTAL(3,$D$2:D26)</f>
         <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E26" t="s">
         <v>50</v>
@@ -1401,7 +1378,7 @@
         <v>11</v>
       </c>
       <c r="G26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>114</v>
@@ -1409,11 +1386,10 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27">
-        <f>SUBTOTAL(3,$D$2:D27)</f>
         <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E27" t="s">
         <v>50</v>
@@ -1422,7 +1398,7 @@
         <v>11</v>
       </c>
       <c r="G27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>114</v>
@@ -1430,11 +1406,10 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28">
-        <f>SUBTOTAL(3,$D$2:D28)</f>
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E28" t="s">
         <v>50</v>
@@ -1443,7 +1418,7 @@
         <v>11</v>
       </c>
       <c r="G28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>114</v>
@@ -1451,11 +1426,10 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29">
-        <f>SUBTOTAL(3,$D$2:D29)</f>
         <v>28</v>
       </c>
       <c r="D29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E29" t="s">
         <v>50</v>
@@ -1464,7 +1438,7 @@
         <v>11</v>
       </c>
       <c r="G29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>114</v>
@@ -1472,11 +1446,10 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30">
-        <f>SUBTOTAL(3,$D$2:D30)</f>
         <v>29</v>
       </c>
       <c r="D30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E30" t="s">
         <v>50</v>
@@ -1485,7 +1458,7 @@
         <v>11</v>
       </c>
       <c r="G30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>114</v>
@@ -1493,26 +1466,19 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31">
-        <f>SUBTOTAL(3,$D$2:D31)</f>
         <v>30</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C31" t="s">
-        <v>75</v>
-      </c>
       <c r="D31" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F31" t="s">
         <v>11</v>
       </c>
       <c r="G31" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>114</v>
@@ -1520,11 +1486,16 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32">
-        <f>SUBTOTAL(3,$D$2:D32)</f>
         <v>31</v>
       </c>
+      <c r="B32" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" t="s">
+        <v>75</v>
+      </c>
       <c r="D32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E32" t="s">
         <v>43</v>
@@ -1533,7 +1504,7 @@
         <v>11</v>
       </c>
       <c r="G32" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>114</v>
@@ -1541,11 +1512,10 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33">
-        <f>SUBTOTAL(3,$D$2:D33)</f>
         <v>32</v>
       </c>
       <c r="D33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E33" t="s">
         <v>43</v>
@@ -1554,7 +1524,7 @@
         <v>11</v>
       </c>
       <c r="G33" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>114</v>
@@ -1562,23 +1532,19 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34">
-        <f>SUBTOTAL(3,$D$2:D34)</f>
         <v>33</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C34" t="s">
-        <v>83</v>
-      </c>
       <c r="D34" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E34" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="F34" t="s">
         <v>11</v>
+      </c>
+      <c r="G34" t="s">
+        <v>81</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>114</v>
@@ -1586,21 +1552,22 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35">
-        <f>SUBTOTAL(3,$D$2:D35)</f>
         <v>34</v>
       </c>
-      <c r="B35" s="3"/>
+      <c r="B35" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" t="s">
+        <v>83</v>
+      </c>
       <c r="D35" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E35" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F35" t="s">
         <v>11</v>
-      </c>
-      <c r="G35" t="s">
-        <v>88</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>114</v>
@@ -1608,12 +1575,11 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36">
-        <f>SUBTOTAL(3,$D$2:D36)</f>
         <v>35</v>
       </c>
       <c r="B36" s="3"/>
       <c r="D36" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E36" t="s">
         <v>87</v>
@@ -1630,30 +1596,32 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37">
-        <f>SUBTOTAL(3,$D$2:D37)</f>
         <v>36</v>
       </c>
       <c r="B37" s="3"/>
       <c r="D37" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E37" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F37" t="s">
         <v>11</v>
       </c>
+      <c r="G37" t="s">
+        <v>88</v>
+      </c>
       <c r="H37" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38">
-        <f>SUBTOTAL(3,$D$2:D38)</f>
         <v>37</v>
       </c>
+      <c r="B38" s="3"/>
       <c r="D38" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E38" t="s">
         <v>85</v>
@@ -1662,80 +1630,67 @@
         <v>11</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39">
-        <f>SUBTOTAL(3,$D$2:D39)</f>
         <v>38</v>
       </c>
       <c r="D39" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E39" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F39" t="s">
         <v>11</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40">
-        <f>SUBTOTAL(3,$D$2:D40)</f>
         <v>39</v>
       </c>
       <c r="D40" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="E40" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="F40" t="s">
-        <v>15</v>
-      </c>
-      <c r="G40" t="s">
-        <v>120</v>
-      </c>
-      <c r="H40" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41">
-        <f>SUBTOTAL(3,$D$2:D41)</f>
         <v>40</v>
       </c>
       <c r="D41" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>119</v>
       </c>
       <c r="F41" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G41" t="s">
-        <v>95</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>114</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42">
-        <f>SUBTOTAL(3,$D$2:D42)</f>
         <v>41</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C42" t="s">
-        <v>97</v>
-      </c>
       <c r="D42" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E42" t="s">
         <v>43</v>
@@ -1743,17 +1698,25 @@
       <c r="F42" t="s">
         <v>11</v>
       </c>
+      <c r="G42" t="s">
+        <v>95</v>
+      </c>
       <c r="H42" s="1" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43">
-        <f>SUBTOTAL(3,$D$2:D43)</f>
         <v>42</v>
       </c>
+      <c r="B43" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C43" t="s">
+        <v>97</v>
+      </c>
       <c r="D43" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E43" t="s">
         <v>43</v>
@@ -1767,17 +1730,10 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44">
-        <f>SUBTOTAL(3,$D$2:D44)</f>
         <v>43</v>
       </c>
-      <c r="B44" s="1">
-        <v>10</v>
-      </c>
-      <c r="C44" t="s">
-        <v>100</v>
-      </c>
       <c r="D44" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E44" t="s">
         <v>43</v>
@@ -1791,14 +1747,19 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45">
-        <f>SUBTOTAL(3,$D$2:D45)</f>
         <v>44</v>
       </c>
+      <c r="B45" s="1">
+        <v>10</v>
+      </c>
+      <c r="C45" t="s">
+        <v>100</v>
+      </c>
       <c r="D45" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E45" t="s">
-        <v>103</v>
+        <v>43</v>
       </c>
       <c r="F45" t="s">
         <v>11</v>
@@ -1809,20 +1770,13 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46">
-        <f>SUBTOTAL(3,$D$2:D46)</f>
         <v>45</v>
       </c>
-      <c r="B46" s="1">
-        <v>11</v>
-      </c>
-      <c r="C46" t="s">
-        <v>104</v>
-      </c>
       <c r="D46" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E46" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F46" t="s">
         <v>11</v>
@@ -1833,35 +1787,39 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47">
-        <f>SUBTOTAL(3,$D$2:D47)</f>
         <v>46</v>
       </c>
       <c r="B47" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C47" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D47" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E47" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F47" t="s">
         <v>11</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48">
-        <f>SUBTOTAL(3,$D$2:D48)</f>
         <v>47</v>
       </c>
+      <c r="B48" s="1">
+        <v>12</v>
+      </c>
+      <c r="C48" t="s">
+        <v>107</v>
+      </c>
       <c r="D48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E48" t="s">
         <v>108</v>
@@ -1875,25 +1833,41 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49">
-        <f>SUBTOTAL(3,$D$2:D49)</f>
         <v>48</v>
       </c>
-      <c r="B49" s="1">
+      <c r="D49" t="s">
+        <v>110</v>
+      </c>
+      <c r="E49" t="s">
+        <v>108</v>
+      </c>
+      <c r="F49" t="s">
+        <v>11</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1">
         <v>13</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C50" t="s">
         <v>111</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D50" t="s">
         <v>112</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E50" t="s">
         <v>113</v>
       </c>
-      <c r="F49" t="s">
-        <v>11</v>
-      </c>
-      <c r="H49" s="1" t="s">
+      <c r="F50" t="s">
+        <v>11</v>
+      </c>
+      <c r="H50" s="1" t="s">
         <v>114</v>
       </c>
     </row>
